--- a/LubanConfig/Datas/__enums__.xlsx
+++ b/LubanConfig/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>Technology</t>
+  </si>
+  <si>
+    <t>卡类型</t>
+  </si>
+  <si>
+    <t>CardType</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1302,7 +1320,13 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1314,15 +1338,24 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:12">
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
@@ -1332,9 +1365,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
@@ -1344,8 +1381,13 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
@@ -1355,8 +1397,13 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
@@ -1366,9 +1413,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
@@ -1378,8 +1429,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
@@ -1389,8 +1445,13 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>6</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
@@ -1400,9 +1461,13 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>7</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
@@ -1412,9 +1477,13 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
@@ -1424,9 +1493,13 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>9</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1496,6 +1569,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1506,6 +1581,8 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1516,8 +1593,6 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1528,8 +1603,6 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1606,29 +1679,41 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="9:12">
+    <row r="37" spans="3:12">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="11:12">
+    <row r="38" spans="3:12">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="11:12">
+    <row r="39" spans="9:12">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="9:12">
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+    <row r="40" spans="11:12">
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="9:12">
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+    <row r="41" spans="11:12">
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
@@ -1656,24 +1741,13 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="3:12">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+    <row r="46" spans="9:12">
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="3:12">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+    <row r="47" spans="9:12">
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1685,6 +1759,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -1696,7 +1771,6 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -1708,7 +1782,6 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -1744,6 +1817,9 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
@@ -1753,6 +1829,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1764,19 +1841,31 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="9:10">
+    <row r="56" spans="3:12">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="9:10">
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" spans="9:10">
       <c r="I58" s="1"/>
@@ -1794,25 +1883,33 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="63" spans="3:10">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+    <row r="62" spans="9:10">
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="9:10">
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="9:10">
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="3:10">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="70" spans="10:10">
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="10:10">
-      <c r="J71" s="1"/>
+    <row r="66" spans="9:10">
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="9:10">
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="72" spans="10:10">
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="10:10">
+      <c r="J73" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/LubanConfig/Datas/__enums__.xlsx
+++ b/LubanConfig/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -122,10 +122,43 @@
     <t>People</t>
   </si>
   <si>
+    <t>WeaponsBuilding</t>
+  </si>
+  <si>
     <t>Weapons</t>
   </si>
   <si>
+    <t>Arm</t>
+  </si>
+  <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>UnrealCard</t>
+  </si>
+  <si>
+    <t>卡槽类型</t>
+  </si>
+  <si>
+    <t>CardSlotType</t>
+  </si>
+  <si>
+    <t>BuildSlot</t>
+  </si>
+  <si>
+    <t>ArmSlot</t>
+  </si>
+  <si>
+    <t>PopulationSlot</t>
+  </si>
+  <si>
+    <t>GroundType</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Center</t>
   </si>
 </sst>
 </file>
@@ -1116,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1509,9 +1542,13 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>10</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
@@ -1521,9 +1558,13 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>11</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
@@ -1533,13 +1574,23 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>12</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1551,15 +1602,24 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="2:12">
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
@@ -1569,9 +1629,13 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
@@ -1581,29 +1645,49 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="2:12">
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -1613,9 +1697,12 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
@@ -1625,9 +1712,13 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
@@ -1637,9 +1728,13 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
@@ -1649,9 +1744,13 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1">
+        <v>4</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
@@ -1661,9 +1760,13 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
@@ -1673,47 +1776,56 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1">
+        <v>6</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="3:12">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+    <row r="37" spans="8:12">
+      <c r="H37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="1">
+        <v>7</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="3:12">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+    <row r="38" spans="8:12">
+      <c r="H38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="1">
+        <v>8</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="9:12">
+    <row r="39" spans="8:12">
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1">
+        <v>9</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="11:12">
+    <row r="40" spans="9:12">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="11:12">
+    <row r="41" spans="9:12">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
@@ -1735,19 +1847,35 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="9:12">
+    <row r="45" spans="3:12">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="9:12">
+    <row r="46" spans="3:12">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="9:12">
+    <row r="47" spans="3:12">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1771,6 +1899,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -1782,6 +1911,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -1805,9 +1935,6 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
@@ -1817,7 +1944,6 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -1835,37 +1961,17 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="3:12">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="3:12">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+    <row r="55" spans="9:10">
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="9:10">
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="3:12">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+    </row>
+    <row r="57" spans="9:10">
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
     </row>
     <row r="58" spans="9:10">
       <c r="I58" s="1"/>
@@ -1879,11 +1985,9 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="9:10">
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="9:10">
+    <row r="62" spans="3:10">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
@@ -1891,25 +1995,15 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="65" spans="3:10">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="9:10">
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="9:10">
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="72" spans="10:10">
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="10:10">
-      <c r="J73" s="1"/>
+    <row r="64" spans="9:10">
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
